--- a/month.xlsx
+++ b/month.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\hist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F04095-6102-416F-B3EE-13F323F07A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B1959-FD1C-466B-A0FE-46AC328A59D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="month" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>week_num</t>
   </si>
@@ -240,6 +250,63 @@
   <si>
     <t>datetime</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-19</t>
   </si>
 </sst>
 </file>
@@ -247,7 +314,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -839,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,13 +1264,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1214,570 +1285,722 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>83</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>85</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>86</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>89</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B91">
         <v>5</v>
       </c>
     </row>
